--- a/downloaded_files/EPES301_Lecture-35384.xlsx
+++ b/downloaded_files/EPES301_Lecture-35384.xlsx
@@ -1182,7 +1182,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4226414352</x:v>
+        <x:v>45928.8322783565</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1214,7 +1214,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4194080671</x:v>
+        <x:v>45928.6664685995</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1438,7 +1438,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6679646991</x:v>
+        <x:v>45928.7053158912</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1790,7 +1790,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4143855324</x:v>
+        <x:v>45928.6659674769</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>

--- a/downloaded_files/EPES301_Lecture-35384.xlsx
+++ b/downloaded_files/EPES301_Lecture-35384.xlsx
@@ -2163,11 +2163,11 @@
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Electrical Machines-1 (EPES301) Location : [9301] ELC. Bulding               -45-الجيزة الرئيسي Time : Sunday(9:11)</x:oddHeader>
+    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Electrical Machines-1 (EPES301) Location : [18202]18202-60-الجيزة الرئيسي Time : Sunday(9:11)</x:oddHeader>
     <x:oddFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:oddFooter>
-    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Electrical Machines-1 (EPES301) Location : [9301] ELC. Bulding               -45-الجيزة الرئيسي Time : Sunday(9:11)</x:evenHeader>
+    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Electrical Machines-1 (EPES301) Location : [18202]18202-60-الجيزة الرئيسي Time : Sunday(9:11)</x:evenHeader>
     <x:evenFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:evenFooter>
-    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Electrical Machines-1 (EPES301) Location : [9301] ELC. Bulding               -45-الجيزة الرئيسي Time : Sunday(9:11)</x:firstHeader>
+    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Electrical Machines-1 (EPES301) Location : [18202]18202-60-الجيزة الرئيسي Time : Sunday(9:11)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
   <x:rowBreaks count="1" manualBreakCount="1">

--- a/downloaded_files/EPES301_Lecture-35384.xlsx
+++ b/downloaded_files/EPES301_Lecture-35384.xlsx
@@ -66,7 +66,7 @@
     <x:t>احمد محمد فؤاد محمد صالح</x:t>
   </x:si>
   <x:si>
-    <x:t>ahmed mohamed fouad saleh</x:t>
+    <x:t>Ahmed Mohamed Fouad Mohamed Saleh</x:t>
   </x:si>
   <x:si>
     <x:t>4230140</x:t>
